--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-site-search/tests/testdata/standard/px-files/sitemaps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-wp-importer/tests/testdata/standard/px-files/sitemaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B95FC1-23D8-3A40-B7A4-E48B3C371323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CE8DDD-3B9F-7241-BE08-71D121BD6FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.3.1</t>
   </si>
@@ -145,100 +145,14 @@
     <t>/</t>
   </si>
   <si>
-    <t>基本</t>
-  </si>
-  <si>
-    <t>/basic/</t>
-  </si>
-  <si>
-    <t>1. PHPによるAPIにAJAX通信する</t>
-  </si>
-  <si>
-    <t>/basic/php_api-ajax.html</t>
-  </si>
-  <si>
-    <t>2. PHPで実行する</t>
-  </si>
-  <si>
-    <t>/basic/php_page.php{*}</t>
-  </si>
-  <si>
-    <t>/basic/php_page.php</t>
-  </si>
-  <si>
-    <t>3. プレビュー環境で動的に実行する</t>
-  </si>
-  <si>
-    <t>/basic/php_preview.html</t>
-  </si>
-  <si>
-    <t>ショーケース</t>
-  </si>
-  <si>
-    <t>/showcase/</t>
-  </si>
-  <si>
-    <t>PHPを拡張子で適用する</t>
-  </si>
-  <si>
-    <t>/showcase/extphp/</t>
-  </si>
-  <si>
     <t>EndOfData</t>
-  </si>
-  <si>
-    <t>除外されるべきコンテンツ</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジョガイ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/ignored/</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>除外の範囲内</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジョガイ </t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t xml:space="preserve">ハンイナイ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/ignored/this_is_ignored_too/ignored.html</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>除外されないコンテンツ</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジョガイ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/ignored/this_is_not_ignored/included.html</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>完全一致で除外されたパス</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">カンゼンイッチ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/ignored/this_is_perfect_match_ignored/ignored.html</t>
-    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -274,13 +188,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -314,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -328,21 +235,6 @@
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -386,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -395,11 +287,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -707,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -771,13 +660,13 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -831,13 +720,13 @@
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
@@ -889,13 +778,13 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -910,348 +799,38 @@
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8" t="s">
+    <row r="12" spans="1:22" ht="5" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="4">
-        <v>1</v>
-      </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="4">
-        <v>1</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="4">
-        <v>1</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="4">
-        <v>1</v>
-      </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4">
-        <v>1</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-    </row>
-    <row r="22" spans="1:22" ht="5" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
